--- a/projects/Kofskey1974/experimental_data_Kofskey1974_interpolated.xlsx
+++ b/projects/Kofskey1974/experimental_data_Kofskey1974_interpolated.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasseba\Python Scripts\Mean line model\meanline-axial\projects\Kofskey1974\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEE9137-A83C-405C-B9CB-3505B76DFAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F65438-8865-4724-8593-AB80E1E77BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>PRtt</t>
   </si>
@@ -41,6 +54,9 @@
   </si>
   <si>
     <t>efficiency_ts</t>
+  </si>
+  <si>
+    <t>cos_angle</t>
   </si>
 </sst>
 </file>
@@ -75,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,16 +114,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -412,15 +442,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G250"/>
+  <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="J240" sqref="J240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +472,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.5334303890872101</v>
       </c>
@@ -465,8 +498,12 @@
       <c r="G2">
         <v>67.856946452555007</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <f>COS(F2*PI()/180)</f>
+        <v>0.78644014031712184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.7398998863251101</v>
       </c>
@@ -488,8 +525,12 @@
       <c r="G3">
         <v>74.779176609718249</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">COS(F3*PI()/180)</f>
+        <v>0.8811557741889271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.8955507249267001</v>
       </c>
@@ -511,8 +552,12 @@
       <c r="G4">
         <v>77.112519708387069</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.943874951267482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.0665656223201601</v>
       </c>
@@ -534,8 +579,12 @@
       <c r="G5">
         <v>78.938420095208954</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.98104190776278788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.1915122748938001</v>
       </c>
@@ -557,8 +606,12 @@
       <c r="G6">
         <v>78.391079802053724</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.9968308077131357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.3711066350238301</v>
       </c>
@@ -580,8 +633,12 @@
       <c r="G7">
         <v>78.045305346915555</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.99601456505972752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.4587439921823502</v>
       </c>
@@ -603,8 +660,12 @@
       <c r="G8">
         <v>78.106190015104417</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.98793965024789954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.66025965737989</v>
       </c>
@@ -626,8 +687,12 @@
       <c r="G9">
         <v>75.442276741206314</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.97489521109063837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.3038669405500201</v>
       </c>
@@ -649,8 +714,12 @@
       <c r="G10">
         <v>58.227969064025856</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.65318600026141227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.4540494186626201</v>
       </c>
@@ -672,8 +741,12 @@
       <c r="G11">
         <v>66.039711147104967</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.76962033911418881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.5530422990247801</v>
       </c>
@@ -695,8 +768,12 @@
       <c r="G12">
         <v>75.304396235147735</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.82687908044422287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.8144347167102</v>
       </c>
@@ -718,8 +795,12 @@
       <c r="G13">
         <v>78.567343411032425</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.94499136404646822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.8758430887661199</v>
       </c>
@@ -741,8 +822,12 @@
       <c r="G14">
         <v>78.328025461274123</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.96049214168053043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.9899487465847601</v>
       </c>
@@ -764,8 +849,12 @@
       <c r="G15">
         <v>78.842539519222385</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.98676019247797442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2.1103484035658</v>
       </c>
@@ -787,8 +876,12 @@
       <c r="G16">
         <v>80.596765376906959</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.9994338293855799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2.2681889795185701</v>
       </c>
@@ -810,8 +903,12 @@
       <c r="G17">
         <v>79.852907908289197</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.99837799742495048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2.3317033284805402</v>
       </c>
@@ -833,8 +930,12 @@
       <c r="G18">
         <v>79.085953436887038</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.9921202591196342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.42149452565662</v>
       </c>
@@ -856,8 +957,12 @@
       <c r="G19">
         <v>77.726430256839905</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.9830471902149206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.5418822168597801</v>
       </c>
@@ -879,8 +984,12 @@
       <c r="G20">
         <v>76.353335832835427</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.96778663332832271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.6383024549787599</v>
       </c>
@@ -902,8 +1011,12 @@
       <c r="G21">
         <v>73.276486913827171</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.95783742140097261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.7376981831960501</v>
       </c>
@@ -925,8 +1038,12 @@
       <c r="G22">
         <v>76.939543992348234</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0.91430656490148587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.35906507388867</v>
       </c>
@@ -948,8 +1065,12 @@
       <c r="G23">
         <v>66.28261598736978</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0.76734119696158154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.48055361665636</v>
       </c>
@@ -971,8 +1092,12 @@
       <c r="G24">
         <v>66.595100862900324</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.85401223790461278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1.57078754761382</v>
       </c>
@@ -994,8 +1119,12 @@
       <c r="G25">
         <v>68.660307167281587</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.91535334642666144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1.79695271523442</v>
       </c>
@@ -1017,8 +1146,12 @@
       <c r="G26">
         <v>76.382829701533566</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.98040259574247968</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.8913028737809801</v>
       </c>
@@ -1040,8 +1173,12 @@
       <c r="G27">
         <v>76.633401095051767</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.99804177886756495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.0381229683106299</v>
       </c>
@@ -1063,8 +1200,12 @@
       <c r="G28">
         <v>79.328034744071289</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.99806218062509366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.1761960792134398</v>
       </c>
@@ -1086,8 +1227,12 @@
       <c r="G29">
         <v>78.866395976268407</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.98239252600946891</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.2966675308617299</v>
       </c>
@@ -1109,8 +1254,12 @@
       <c r="G30">
         <v>76.827510652165628</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.95770240807916596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.4915900524499901</v>
       </c>
@@ -1132,8 +1281,12 @@
       <c r="G31">
         <v>75.140560248646608</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>0.91382049719845682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.55951977344793</v>
       </c>
@@ -1155,8 +1308,12 @@
       <c r="G32">
         <v>73.696234679495788</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.91320032078528057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.3842570249087598</v>
       </c>
@@ -1178,8 +1335,12 @@
       <c r="G33">
         <v>77.119100499147152</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0.93470443307722506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1.4872783838222601</v>
       </c>
@@ -1201,8 +1362,12 @@
       <c r="G34">
         <v>67.030316981343631</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>0.98449169214714216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.5643260275611699</v>
       </c>
@@ -1224,8 +1389,12 @@
       <c r="G35">
         <v>74.732934450490902</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.99754186188608673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1.73567596673513</v>
       </c>
@@ -1247,8 +1416,12 @@
       <c r="G36">
         <v>75.65748390517868</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.98971153321709093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.8014997108270301</v>
       </c>
@@ -1270,8 +1443,12 @@
       <c r="G37">
         <v>71.493091709387826</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0.97693429032325707</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.85408930458887</v>
       </c>
@@ -1293,8 +1470,12 @@
       <c r="G38">
         <v>74.162128545406986</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.9638123479321653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.0011008515645199</v>
       </c>
@@ -1316,8 +1497,12 @@
       <c r="G39">
         <v>73.260145472758026</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.91930891808743198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.14567137985361</v>
       </c>
@@ -1339,8 +1524,12 @@
       <c r="G40">
         <v>70.824431904259612</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0.89159528839589275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.3514947250862499</v>
       </c>
@@ -1362,8 +1551,12 @@
       <c r="G41">
         <v>65.14878472343095</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.81295438080520543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1.46983227968011</v>
       </c>
@@ -1385,8 +1578,12 @@
       <c r="G42">
         <v>73.401770309401144</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0.94495151729751037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.5666832858026001</v>
       </c>
@@ -1408,8 +1605,12 @@
       <c r="G43">
         <v>72.502428741212597</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.90654917415635627</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.71388628522425</v>
       </c>
@@ -1431,8 +1632,12 @@
       <c r="G44">
         <v>67.19555495567873</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.82504163567664401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.7643459705243001</v>
       </c>
@@ -1454,8 +1659,12 @@
       <c r="G45">
         <v>67.014238788733479</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0.81782808766885851</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1.83681072133697</v>
       </c>
@@ -1477,8 +1686,12 @@
       <c r="G46">
         <v>65.152840520140174</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>0.81762746347687509</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.0602716231577598</v>
       </c>
@@ -1500,8 +1713,12 @@
       <c r="G47">
         <v>57.73251756914879</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0.76709191194077708</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.0887142771673002</v>
       </c>
@@ -1523,8 +1740,12 @@
       <c r="G48">
         <v>58.644830433571869</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0.74031754182824061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.14569531140936</v>
       </c>
@@ -1546,8 +1767,12 @@
       <c r="G49">
         <v>56.767551968377013</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0.72986527531751333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.1982370420596999</v>
       </c>
@@ -1569,8 +1794,12 @@
       <c r="G50">
         <v>53.958219049741167</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.73082472941398147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.2836367987555501</v>
       </c>
@@ -1592,8 +1821,12 @@
       <c r="G51">
         <v>52.666376599419792</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.73598873626369654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.3418223879704001</v>
       </c>
@@ -1615,8 +1848,12 @@
       <c r="G52">
         <v>55.570185034356669</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0.75806840603706982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.3796103145005201</v>
       </c>
@@ -1638,8 +1875,12 @@
       <c r="G53">
         <v>53.041144129071363</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0.71879905271673616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1.43490417406218</v>
       </c>
@@ -1661,8 +1902,12 @@
       <c r="G54">
         <v>50.214740839656322</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0.69249687442955732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.4965518616755999</v>
       </c>
@@ -1684,8 +1929,12 @@
       <c r="G55">
         <v>47.289521346996573</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0.66972959647880437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.61528827553197</v>
       </c>
@@ -1707,8 +1956,12 @@
       <c r="G56">
         <v>44.321731323614991</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0.65422478640657433</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.6723889675527901</v>
       </c>
@@ -1730,8 +1983,12 @@
       <c r="G57">
         <v>43.280954791691471</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0.65166662424425026</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.7074965598388601</v>
       </c>
@@ -1753,8 +2010,12 @@
       <c r="G58">
         <v>41.811143639947517</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>0.65008042608574601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1.79954928903336</v>
       </c>
@@ -1776,8 +2037,12 @@
       <c r="G59">
         <v>39.309609109062038</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0.64335335648830727</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1.8696807131603601</v>
       </c>
@@ -1799,8 +2064,12 @@
       <c r="G60">
         <v>37.701459853520497</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0.64152279112753607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.9288036216421001</v>
       </c>
@@ -1822,8 +2091,12 @@
       <c r="G61">
         <v>35.450616371360262</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0.6393030223338998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.9550804698562101</v>
       </c>
@@ -1845,8 +2118,12 @@
       <c r="G62">
         <v>34.173722921565023</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0.63748289314402617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.9814051811818101</v>
       </c>
@@ -1868,8 +2145,12 @@
       <c r="G63">
         <v>31.568866711775389</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0.63901695435795014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1.5345729355745299</v>
       </c>
@@ -1891,8 +2172,12 @@
       <c r="G64">
         <v>67.899690885021741</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0.78703203873427163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1.7423856476988699</v>
       </c>
@@ -1914,8 +2199,12 @@
       <c r="G65">
         <v>74.869177276080123</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0.88214023860056512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.89176894725991</v>
       </c>
@@ -1937,8 +2226,12 @@
       <c r="G66">
         <v>77.059192220345793</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0.94261196756970289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2.0639095740669</v>
       </c>
@@ -1960,8 +2253,12 @@
       <c r="G67">
         <v>78.943563754895294</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="1">COS(F67*PI()/180)</f>
+        <v>0.98061605544528352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.1904802369255898</v>
       </c>
@@ -1983,8 +2280,12 @@
       <c r="G68">
         <v>78.393126321840597</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68">
+        <f t="shared" si="1"/>
+        <v>0.99675449282807804</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.4578461492048</v>
       </c>
@@ -2006,8 +2307,12 @@
       <c r="G69">
         <v>78.122822725365936</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>0.98804418079498113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.65828510516338</v>
       </c>
@@ -2029,8 +2334,12 @@
       <c r="G70">
         <v>75.461056373021208</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>0.97504043477857194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.3068588754079</v>
       </c>
@@ -2052,8 +2361,12 @@
       <c r="G71">
         <v>58.431856264366921</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>0.65569346222064651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.45348675841332</v>
       </c>
@@ -2075,8 +2388,12 @@
       <c r="G72">
         <v>65.983877604389306</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>0.7692219871013255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.5475228905727501</v>
       </c>
@@ -2098,8 +2415,12 @@
       <c r="G73">
         <v>75.216139426211654</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>0.82385875149791166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.7353739170659801</v>
       </c>
@@ -2121,8 +2442,12 @@
       <c r="G74">
         <v>76.901483218135652</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>0.91323662992619159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1.80368612386301</v>
       </c>
@@ -2144,8 +2469,12 @@
       <c r="G75">
         <v>78.563239965031102</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>0.94200970681314578</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.8762295040753001</v>
       </c>
@@ -2167,8 +2496,12 @@
       <c r="G76">
         <v>78.326388658254231</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>0.96058175117073663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1.9957280987122901</v>
       </c>
@@ -2190,8 +2523,12 @@
       <c r="G77">
         <v>78.923935641657465</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>0.98773907367578151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.1095599881335998</v>
       </c>
@@ -2213,8 +2550,12 @@
       <c r="G78">
         <v>80.60298421535812</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>0.99941849815327344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.3328417495889502</v>
       </c>
@@ -2236,8 +2577,12 @@
       <c r="G79">
         <v>79.079674885043261</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>0.99202661800739911</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.4224053579778801</v>
       </c>
@@ -2259,8 +2604,12 @@
       <c r="G80">
         <v>77.713403285739901</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>0.9829376963481985</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2.5404030550932402</v>
       </c>
@@ -2282,8 +2631,12 @@
       <c r="G81">
         <v>76.380692195409466</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>0.96800156375370106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2.6370437598362799</v>
       </c>
@@ -2305,8 +2658,12 @@
       <c r="G82">
         <v>73.312034935854214</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>0.95797514041301934</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.35963163902031</v>
       </c>
@@ -2328,8 +2685,12 @@
       <c r="G83">
         <v>66.278149887571772</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>0.76778648142185779</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1.48634308958623</v>
       </c>
@@ -2351,8 +2712,12 @@
       <c r="G84">
         <v>66.778399413698892</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>0.85768388069154822</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1.5746018976171601</v>
       </c>
@@ -2374,8 +2739,12 @@
       <c r="G85">
         <v>68.766066939089711</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>0.91764255203106282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1.7995655693605701</v>
       </c>
@@ -2397,8 +2766,12 @@
       <c r="G86">
         <v>76.469599892773246</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>0.98088644944048742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1.8948863893484</v>
       </c>
@@ -2420,8 +2793,12 @@
       <c r="G87">
         <v>76.632953760981536</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>0.99822776390566981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2.0443400827630498</v>
       </c>
@@ -2443,8 +2820,12 @@
       <c r="G88">
         <v>79.424852381589574</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>0.99771359548917804</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2.17237644621658</v>
       </c>
@@ -2466,8 +2847,12 @@
       <c r="G89">
         <v>78.918366772718912</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>0.98303762054039523</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2.2960961580040302</v>
       </c>
@@ -2489,8 +2874,12 @@
       <c r="G90">
         <v>76.826966599806696</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>0.95784413960975379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2.3828942935725301</v>
       </c>
@@ -2512,8 +2901,12 @@
       <c r="G91">
         <v>77.135449381503207</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>0.93509896018694061</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2.4909689713949499</v>
       </c>
@@ -2535,8 +2928,12 @@
       <c r="G92">
         <v>75.155081774156429</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>0.91394433661355734</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2.56062620360919</v>
       </c>
@@ -2558,8 +2955,12 @@
       <c r="G93">
         <v>73.674867963299818</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>0.91319936864939177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1.49229137021636</v>
       </c>
@@ -2581,8 +2982,12 @@
       <c r="G94">
         <v>67.608664859724911</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>0.98568203476737148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1.5579135261789701</v>
       </c>
@@ -2604,8 +3009,12 @@
       <c r="G95">
         <v>74.55617490709227</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>0.99689350323581694</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1.73595215229207</v>
       </c>
@@ -2627,8 +3036,12 @@
       <c r="G96">
         <v>75.657834530694103</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>0.98966848859195367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1.8055993282415099</v>
       </c>
@@ -2650,8 +3063,12 @@
       <c r="G97">
         <v>71.25065834981757</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>0.97597195339666332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1.8555362251798799</v>
       </c>
@@ -2673,8 +3090,12 @@
       <c r="G98">
         <v>74.239933972632642</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>0.96341345503150488</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2.0035996399857199</v>
       </c>
@@ -2696,8 +3117,12 @@
       <c r="G99">
         <v>73.263902270039708</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>0.91858645964041674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2.1401637159909601</v>
       </c>
@@ -2719,8 +3144,12 @@
       <c r="G100">
         <v>71.066477018412826</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>0.89278901629676688</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2.2823794128146901</v>
       </c>
@@ -2742,8 +3171,12 @@
       <c r="G101">
         <v>66.283636841224876</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>0.83597487272750159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2.3478155278784798</v>
       </c>
@@ -2765,8 +3198,12 @@
       <c r="G102">
         <v>65.200075162364385</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>0.81418747139493819</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1.46601183622367</v>
       </c>
@@ -2788,8 +3225,12 @@
       <c r="G103">
         <v>73.452177119257939</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>0.94626343340154617</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1.5700313252648499</v>
       </c>
@@ -2811,8 +3252,12 @@
       <c r="G104">
         <v>72.358819594176481</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>0.90495678381527622</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1.71676479905068</v>
       </c>
@@ -2834,8 +3279,12 @@
       <c r="G105">
         <v>67.136730053307929</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>0.82462929872751867</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1.76523096726183</v>
       </c>
@@ -2857,8 +3306,12 @@
       <c r="G106">
         <v>67.014619286589621</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>0.81782701220983078</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1.8307173636496099</v>
       </c>
@@ -2880,8 +3333,12 @@
       <c r="G107">
         <v>65.364643188286536</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>0.81774742440219561</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1.9588190928243501</v>
       </c>
@@ -2903,8 +3360,12 @@
       <c r="G108">
         <v>62.395321738293227</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>0.80173987349434495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2.0583761143598398</v>
       </c>
@@ -2926,8 +3387,12 @@
       <c r="G109">
         <v>57.672813775767487</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>0.76840092725374565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2.0898119981295298</v>
       </c>
@@ -2949,8 +3414,12 @@
       <c r="G110">
         <v>58.664065878778793</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>0.73970147083804239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2.1439147027619501</v>
       </c>
@@ -2972,8 +3441,12 @@
       <c r="G111">
         <v>56.876028681900628</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>0.73018106423019569</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2.2036288031536402</v>
       </c>
@@ -2995,8 +3468,12 @@
       <c r="G112">
         <v>53.799260871617477</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>0.7309785601936537</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2.2847401209768599</v>
       </c>
@@ -3018,8 +3495,12 @@
       <c r="G113">
         <v>52.653823511817073</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>0.73605870923341166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1.34098732407821</v>
       </c>
@@ -3041,8 +3522,12 @@
       <c r="G114">
         <v>55.634480492060987</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>0.75890761883907254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1.38951382987816</v>
       </c>
@@ -3064,8 +3549,12 @@
       <c r="G115">
         <v>52.295076898511198</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>0.71009513223154785</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1.4438277160714099</v>
       </c>
@@ -3087,8 +3576,12 @@
       <c r="G116">
         <v>50.289094394818193</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>0.68902083476271769</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1.49793042070383</v>
       </c>
@@ -3110,8 +3603,12 @@
       <c r="G117">
         <v>47.219173872416476</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>0.6692189260998691</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1.6247675745797701</v>
       </c>
@@ -3133,8 +3630,12 @@
       <c r="G118">
         <v>44.112770113386759</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>0.65332820348949527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1.67616514398057</v>
       </c>
@@ -3156,8 +3657,12 @@
       <c r="G119">
         <v>43.228398457480807</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>0.65153473381514737</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1.7060699614342201</v>
       </c>
@@ -3179,8 +3684,12 @@
       <c r="G120">
         <v>41.863279689144193</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120">
+        <f t="shared" si="1"/>
+        <v>0.65014840436716381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1.7957743575303799</v>
       </c>
@@ -3202,8 +3711,12 @@
       <c r="G121">
         <v>39.415292721018282</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>0.64345178545514781</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1.87122902640272</v>
       </c>
@@ -3225,8 +3738,12 @@
       <c r="G122">
         <v>37.674325338658427</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122">
+        <f t="shared" si="1"/>
+        <v>0.64148233582950509</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1.9239213398967201</v>
       </c>
@@ -3248,8 +3765,12 @@
       <c r="G123">
         <v>35.682773175559291</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123">
+        <f t="shared" si="1"/>
+        <v>0.63953782095863276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1.9495346463462999</v>
       </c>
@@ -3271,8 +3792,12 @@
       <c r="G124">
         <v>34.475103367322042</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124">
+        <f t="shared" si="1"/>
+        <v>0.63786733508709037</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1.9808548830707799</v>
       </c>
@@ -3294,8 +3819,12 @@
       <c r="G125">
         <v>31.61380819842115</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125">
+        <f t="shared" si="1"/>
+        <v>0.63898244576884344</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1.54546728730075</v>
       </c>
@@ -3317,8 +3846,12 @@
       <c r="G126">
         <v>68.304177857429011</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <f t="shared" si="1"/>
+        <v>0.79263945599453056</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1.7458981209758599</v>
       </c>
@@ -3340,8 +3873,12 @@
       <c r="G127">
         <v>74.912733728466151</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127">
+        <f t="shared" si="1"/>
+        <v>0.88368495998562702</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1.89574701064342</v>
       </c>
@@ -3363,8 +3900,12 @@
       <c r="G128">
         <v>77.115227043335906</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128">
+        <f t="shared" si="1"/>
+        <v>0.94394013143956668</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2.0708295340067902</v>
       </c>
@@ -3386,8 +3927,12 @@
       <c r="G129">
         <v>78.93337304971277</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129">
+        <f t="shared" si="1"/>
+        <v>0.98178671326088385</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2.1952584404776601</v>
       </c>
@@ -3409,8 +3954,12 @@
       <c r="G130">
         <v>78.393913194035591</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130">
+        <f t="shared" si="1"/>
+        <v>0.9971023525128675</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2.4575238610979402</v>
       </c>
@@ -3432,8 +3981,12 @@
       <c r="G131">
         <v>78.124450196861687</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="2">COS(F131*PI()/180)</f>
+        <v>0.98808159259006889</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2.6612612038655499</v>
       </c>
@@ -3455,8 +4008,12 @@
       <c r="G132">
         <v>75.432797102407861</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132">
+        <f t="shared" si="2"/>
+        <v>0.97482139071588692</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1.3060655169805</v>
       </c>
@@ -3478,8 +4035,12 @@
       <c r="G133">
         <v>58.378053573914308</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>0.65502927078728812</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1.4520775182068999</v>
       </c>
@@ -3501,8 +4062,12 @@
       <c r="G134">
         <v>65.927706282647605</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134">
+        <f t="shared" si="2"/>
+        <v>0.76822296098402454</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1.56110153260519</v>
       </c>
@@ -3524,8 +4089,12 @@
       <c r="G135">
         <v>75.45087448298024</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135">
+        <f t="shared" si="2"/>
+        <v>0.83124672500539853</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.73037855228736</v>
       </c>
@@ -3547,8 +4116,12 @@
       <c r="G136">
         <v>76.829393567892609</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136">
+        <f t="shared" si="2"/>
+        <v>0.91091567184218669</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1.8140685909509</v>
       </c>
@@ -3570,8 +4143,12 @@
       <c r="G137">
         <v>78.568948296579038</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137">
+        <f t="shared" si="2"/>
+        <v>0.94489147614263891</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1.91329253287993</v>
       </c>
@@ -3593,8 +4170,12 @@
       <c r="G138">
         <v>78.396549352680609</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138">
+        <f t="shared" si="2"/>
+        <v>0.97048987789805652</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2.0008624637155998</v>
       </c>
@@ -3616,8 +4197,12 @@
       <c r="G139">
         <v>79.038856635309514</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139">
+        <f t="shared" si="2"/>
+        <v>0.9885919155640146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2.0922836175694099</v>
       </c>
@@ -3639,8 +4224,12 @@
       <c r="G140">
         <v>80.712322407756986</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140">
+        <f t="shared" si="2"/>
+        <v>0.99863893222556954</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2.1097431323439801</v>
       </c>
@@ -3662,8 +4251,12 @@
       <c r="G141">
         <v>80.59855311981751</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141">
+        <f t="shared" si="2"/>
+        <v>0.99942207776441294</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2.26917707582593</v>
       </c>
@@ -3685,8 +4278,12 @@
       <c r="G142">
         <v>79.853661800202929</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142">
+        <f t="shared" si="2"/>
+        <v>0.99834554078705595</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2.32932973907088</v>
       </c>
@@ -3708,8 +4305,12 @@
       <c r="G143">
         <v>79.099634484729947</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143">
+        <f t="shared" si="2"/>
+        <v>0.99243150774786248</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2.4205932125777898</v>
       </c>
@@ -3731,8 +4332,12 @@
       <c r="G144">
         <v>77.740842705132934</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144">
+        <f t="shared" si="2"/>
+        <v>0.98315519574886567</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2.5428671543077299</v>
       </c>
@@ -3754,8 +4359,12 @@
       <c r="G145">
         <v>76.331750474333006</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145">
+        <f t="shared" si="2"/>
+        <v>0.96765190920521604</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2.6260841519305802</v>
       </c>
@@ -3777,8 +4386,12 @@
       <c r="G146">
         <v>73.626411733365842</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146">
+        <f t="shared" si="2"/>
+        <v>0.95916495593568052</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1.3606850335070699</v>
       </c>
@@ -3800,8 +4413,12 @@
       <c r="G147">
         <v>66.269953383043784</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147">
+        <f t="shared" si="2"/>
+        <v>0.76861339796432881</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1.45206318362991</v>
       </c>
@@ -3823,8 +4440,12 @@
       <c r="G148">
         <v>65.955149336147471</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148">
+        <f t="shared" si="2"/>
+        <v>0.8353204012047365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1.8880158954531501</v>
       </c>
@@ -3846,8 +4467,12 @@
       <c r="G149">
         <v>76.647437901909811</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <f t="shared" si="2"/>
+        <v>0.99775707449645712</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2.0416730044078801</v>
       </c>
@@ -3869,8 +4494,12 @@
       <c r="G150">
         <v>79.395965873771573</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150">
+        <f t="shared" si="2"/>
+        <v>0.9978697792176634</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2.1777129182411401</v>
       </c>
@@ -3892,8 +4521,12 @@
       <c r="G151">
         <v>78.848673033438672</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151">
+        <f t="shared" si="2"/>
+        <v>0.98214324495083549</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2.2883615180316998</v>
       </c>
@@ -3915,8 +4548,12 @@
       <c r="G152">
         <v>76.956434152577998</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152">
+        <f t="shared" si="2"/>
+        <v>0.95973983640331195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2.38731310299791</v>
       </c>
@@ -3938,8 +4575,12 @@
       <c r="G153">
         <v>77.079644394222953</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153">
+        <f t="shared" si="2"/>
+        <v>0.93381546274242255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2.4919125112984299</v>
       </c>
@@ -3961,8 +4602,12 @@
       <c r="G154">
         <v>75.132674800194337</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154">
+        <f t="shared" si="2"/>
+        <v>0.91375616752301159</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2.5597246168486998</v>
       </c>
@@ -3984,8 +4629,12 @@
       <c r="G155">
         <v>73.69227402618111</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155">
+        <f t="shared" si="2"/>
+        <v>0.91320014450814702</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1.4756005590485</v>
       </c>
@@ -4007,8 +4656,12 @@
       <c r="G156">
         <v>65.653620281800613</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156">
+        <f t="shared" si="2"/>
+        <v>0.9815360662142748</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1.56521077800916</v>
       </c>
@@ -4030,8 +4683,12 @@
       <c r="G157">
         <v>74.762826152185397</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157">
+        <f t="shared" si="2"/>
+        <v>0.99761866933111665</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1.7325048478742999</v>
       </c>
@@ -4053,8 +4710,12 @@
       <c r="G158">
         <v>75.665626779132779</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158">
+        <f t="shared" si="2"/>
+        <v>0.99023337823338053</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1.8024862527424801</v>
       </c>
@@ -4076,8 +4737,12 @@
       <c r="G159">
         <v>71.440772611093337</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159">
+        <f t="shared" si="2"/>
+        <v>0.97670448687180567</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1.8529965238650701</v>
       </c>
@@ -4099,8 +4764,12 @@
       <c r="G160">
         <v>74.098893515496897</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160">
+        <f t="shared" si="2"/>
+        <v>0.9641121875143347</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2.0025730565698101</v>
       </c>
@@ -4122,8 +4791,12 @@
       <c r="G161">
         <v>73.264030704455536</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161">
+        <f t="shared" si="2"/>
+        <v>0.91878051544339634</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2.1404525744502001</v>
       </c>
@@ -4145,8 +4818,12 @@
       <c r="G162">
         <v>71.061243516712793</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162">
+        <f t="shared" si="2"/>
+        <v>0.8927308952998575</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2.2836072166631398</v>
       </c>
@@ -4168,8 +4845,12 @@
       <c r="G163">
         <v>66.260025524854896</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163">
+        <f t="shared" si="2"/>
+        <v>0.83542763420838817</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1.45217786024583</v>
       </c>
@@ -4191,8 +4872,12 @@
       <c r="G164">
         <v>73.646550571703557</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164">
+        <f t="shared" si="2"/>
+        <v>0.95088501784687285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1.5670217129023101</v>
       </c>
@@ -4214,8 +4899,12 @@
       <c r="G165">
         <v>72.502206108317736</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <f t="shared" si="2"/>
+        <v>0.9063887929796749</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1.7087954575318201</v>
       </c>
@@ -4237,8 +4926,12 @@
       <c r="G166">
         <v>67.322286063395865</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166">
+        <f t="shared" si="2"/>
+        <v>0.82800925626251232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1.7534572212422499</v>
       </c>
@@ -4260,8 +4953,12 @@
       <c r="G167">
         <v>66.986620880287091</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167">
+        <f t="shared" si="2"/>
+        <v>0.81933488344062733</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1.82727551455158</v>
       </c>
@@ -4283,8 +4980,12 @@
       <c r="G168">
         <v>65.473514258196502</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168">
+        <f t="shared" si="2"/>
+        <v>0.81775160778588785</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1.9534150138766599</v>
       </c>
@@ -4306,8 +5007,12 @@
       <c r="G169">
         <v>62.636614954897823</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169">
+        <f t="shared" si="2"/>
+        <v>0.80245610580075666</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2.0481283422459802</v>
       </c>
@@ -4329,8 +5034,12 @@
       <c r="G170">
         <v>58.133408032070278</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170">
+        <f t="shared" si="2"/>
+        <v>0.77202216345878905</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2.0828753568712299</v>
       </c>
@@ -4352,8 +5061,12 @@
       <c r="G171">
         <v>58.521595191028872</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171">
+        <f t="shared" si="2"/>
+        <v>0.74591575416759326</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2.14446625600758</v>
       </c>
@@ -4375,8 +5088,12 @@
       <c r="G172">
         <v>56.849281877952883</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172">
+        <f t="shared" si="2"/>
+        <v>0.73008326355428033</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2.1923628559255501</v>
       </c>
@@ -4398,8 +5115,12 @@
       <c r="G173">
         <v>54.132127274985251</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173">
+        <f t="shared" si="2"/>
+        <v>0.7306570924439193</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2.2656221007322501</v>
       </c>
@@ -4421,8 +5142,12 @@
       <c r="G174">
         <v>52.882091473273988</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174">
+        <f t="shared" si="2"/>
+        <v>0.73484512781204214</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1.3392596190984301</v>
       </c>
@@ -4444,8 +5169,12 @@
       <c r="G175">
         <v>55.768839430852509</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175">
+        <f t="shared" si="2"/>
+        <v>0.76063991068925674</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1.38393571738585</v>
       </c>
@@ -4467,8 +5196,12 @@
       <c r="G176">
         <v>52.840396772500398</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <f t="shared" si="2"/>
+        <v>0.71414584156085681</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1.4304370851434001</v>
       </c>
@@ -4490,8 +5223,12 @@
       <c r="G177">
         <v>50.221513892295143</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <f t="shared" si="2"/>
+        <v>0.69424770821788451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1.49258703278238</v>
       </c>
@@ -4513,8 +5250,12 @@
       <c r="G178">
         <v>47.504947580577912</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <f t="shared" si="2"/>
+        <v>0.67119655391177191</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1.62266376258755</v>
       </c>
@@ -4536,8 +5277,12 @@
       <c r="G179">
         <v>44.213057906490818</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <f t="shared" si="2"/>
+        <v>0.65340153614228447</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1.6748702919873599</v>
       </c>
@@ -4559,8 +5304,12 @@
       <c r="G180">
         <v>43.252725051455037</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <f t="shared" si="2"/>
+        <v>0.65157996130073947</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1.7038404720853999</v>
       </c>
@@ -4582,8 +5331,12 @@
       <c r="G181">
         <v>41.942646274847597</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <f t="shared" si="2"/>
+        <v>0.65025463046925558</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1.79471691201357</v>
       </c>
@@ -4605,8 +5358,12 @@
       <c r="G182">
         <v>39.443688097535627</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182">
+        <f t="shared" si="2"/>
+        <v>0.64347935577532656</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1.8738820025403999</v>
       </c>
@@ -4628,8 +5385,12 @@
       <c r="G183">
         <v>37.636287534918416</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183">
+        <f t="shared" si="2"/>
+        <v>0.64139612813806823</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1.92548647970661</v>
       </c>
@@ -4651,8 +5412,12 @@
       <c r="G184">
         <v>35.621859104711298</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184">
+        <f t="shared" si="2"/>
+        <v>0.63947963602779312</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1.9539979533409499</v>
       </c>
@@ -4674,8 +5439,12 @@
       <c r="G185">
         <v>34.30234395518773</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185">
+        <f t="shared" si="2"/>
+        <v>0.6375579467290311</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1.9704540477261701</v>
       </c>
@@ -4697,8 +5466,12 @@
       <c r="G186">
         <v>32.531271830808421</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186">
+        <f t="shared" si="2"/>
+        <v>0.63832997904858102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1.5440541318744601</v>
       </c>
@@ -4720,8 +5493,12 @@
       <c r="G187">
         <v>68.252021046502875</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187">
+        <f t="shared" si="2"/>
+        <v>0.79191582268076155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1.7438421066408301</v>
       </c>
@@ -4743,8 +5520,12 @@
       <c r="G188">
         <v>74.887205228126192</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188">
+        <f t="shared" si="2"/>
+        <v>0.88271527323672416</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1.90040310970342</v>
       </c>
@@ -4766,8 +5547,12 @@
       <c r="G189">
         <v>77.158799462123412</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189">
+        <f t="shared" si="2"/>
+        <v>0.9454754828913865</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2.0671439415752602</v>
       </c>
@@ -4789,8 +5574,12 @@
       <c r="G190">
         <v>78.937704551206565</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190">
+        <f t="shared" si="2"/>
+        <v>0.98113401039394021</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2.19358427348637</v>
       </c>
@@ -4812,8 +5601,12 @@
       <c r="G191">
         <v>78.392595446456241</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191">
+        <f t="shared" si="2"/>
+        <v>0.99698128628531935</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2.3717378216370402</v>
       </c>
@@ -4835,8 +5628,12 @@
       <c r="G192">
         <v>78.04519970429665</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192">
+        <f t="shared" si="2"/>
+        <v>0.99596142081570938</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2.4644779205821501</v>
       </c>
@@ -4858,8 +5655,12 @@
       <c r="G193">
         <v>78.005426426229832</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193">
+        <f t="shared" si="2"/>
+        <v>0.9872614194164574</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2.6610842080464798</v>
       </c>
@@ -4881,8 +5682,12 @@
       <c r="G194">
         <v>75.434470126019988</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194">
+        <f t="shared" si="2"/>
+        <v>0.97483444422193732</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1.3097662487239199</v>
       </c>
@@ -4904,8 +5709,12 @@
       <c r="G195">
         <v>58.62743492507002</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195">
+        <f t="shared" ref="H195:H250" si="3">COS(F195*PI()/180)</f>
+        <v>0.65812314744791489</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1.45980027746512</v>
       </c>
@@ -4927,8 +5736,12 @@
       <c r="G196">
         <v>66.668815248963355</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196">
+        <f t="shared" si="3"/>
+        <v>0.77367463802119707</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1.54384472423631</v>
       </c>
@@ -4950,8 +5763,12 @@
       <c r="G197">
         <v>74.892147587428681</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197">
+        <f t="shared" si="3"/>
+        <v>0.82183288973808721</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1.72987854356987</v>
       </c>
@@ -4973,8 +5790,12 @@
       <c r="G198">
         <v>76.824450682546299</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198">
+        <f t="shared" si="3"/>
+        <v>0.9106817483376527</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1.8038112190142099</v>
       </c>
@@ -4996,8 +5817,12 @@
       <c r="G199">
         <v>78.563285309770094</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199">
+        <f t="shared" si="3"/>
+        <v>0.94205726888324071</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1.87999110017537</v>
       </c>
@@ -5019,8 +5844,12 @@
       <c r="G200">
         <v>78.331598452442961</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200">
+        <f t="shared" si="3"/>
+        <v>0.9614488528042463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1.99344030573515</v>
       </c>
@@ -5042,8 +5871,12 @@
       <c r="G201">
         <v>78.89164739518246</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201">
+        <f t="shared" si="3"/>
+        <v>0.98734922209938969</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2.1083108656388201</v>
       </c>
@@ -5065,8 +5898,12 @@
       <c r="G202">
         <v>80.609984471404701</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202">
+        <f t="shared" si="3"/>
+        <v>0.99939378900702491</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2.2766615187288899</v>
       </c>
@@ -5088,8 +5925,12 @@
       <c r="G203">
         <v>79.746685762915163</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203">
+        <f t="shared" si="3"/>
+        <v>0.99808926258397512</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2.3312069732743499</v>
       </c>
@@ -5111,8 +5952,12 @@
       <c r="G204">
         <v>79.088794378657965</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204">
+        <f t="shared" si="3"/>
+        <v>0.99216091446901022</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2.42830013349736</v>
       </c>
@@ -5134,8 +5979,12 @@
       <c r="G205">
         <v>77.631939138899696</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205">
+        <f t="shared" si="3"/>
+        <v>0.98222062121747844</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2.5426903646310501</v>
       </c>
@@ -5157,8 +6006,12 @@
       <c r="G206">
         <v>76.335621591825856</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206">
+        <f t="shared" si="3"/>
+        <v>0.96766890604296618</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2.63629296128576</v>
       </c>
@@ -5180,8 +6033,12 @@
       <c r="G207">
         <v>73.333293045053097</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <f t="shared" si="3"/>
+        <v>0.9580571834005287</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1.36390335837499</v>
       </c>
@@ -5203,8 +6060,12 @@
       <c r="G208">
         <v>66.245760227264398</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208">
+        <f t="shared" si="3"/>
+        <v>0.77113183944340058</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1.4901866345574899</v>
       </c>
@@ -5226,8 +6087,12 @@
       <c r="G209">
         <v>66.868242079248304</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209">
+        <f t="shared" si="3"/>
+        <v>0.8600975692189603</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1.5747585268172599</v>
       </c>
@@ -5249,8 +6114,12 @@
       <c r="G210">
         <v>68.772068151283989</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210">
+        <f t="shared" si="3"/>
+        <v>0.91773591219109341</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1.80031934664816</v>
       </c>
@@ -5272,8 +6141,12 @@
       <c r="G211">
         <v>76.470155560080073</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211">
+        <f t="shared" si="3"/>
+        <v>0.98102492224826887</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1.89063947857498</v>
       </c>
@@ -5295,8 +6168,12 @@
       <c r="G212">
         <v>76.636194801445072</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212">
+        <f t="shared" si="3"/>
+        <v>0.99800633174561959</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2.0429887705154002</v>
       </c>
@@ -5318,8 +6195,12 @@
       <c r="G213">
         <v>79.410190777070227</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213">
+        <f t="shared" si="3"/>
+        <v>0.99779615842732816</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2.1766196372012598</v>
       </c>
@@ -5341,8 +6222,12 @@
       <c r="G214">
         <v>78.861435543635722</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214">
+        <f t="shared" si="3"/>
+        <v>0.9823202567139192</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2.29734314059105</v>
       </c>
@@ -5364,8 +6249,12 @@
       <c r="G215">
         <v>76.828787824952144</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215">
+        <f t="shared" si="3"/>
+        <v>0.95753451987793203</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2.3907782111352498</v>
       </c>
@@ -5387,8 +6276,12 @@
       <c r="G216">
         <v>77.002160477201357</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216">
+        <f t="shared" si="3"/>
+        <v>0.93280049090133166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2.4944140512525101</v>
       </c>
@@ -5410,8 +6303,12 @@
       <c r="G217">
         <v>75.07460405670318</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217">
+        <f t="shared" si="3"/>
+        <v>0.91325633858482769</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2.5679711017459299</v>
       </c>
@@ -5433,8 +6330,12 @@
       <c r="G218">
         <v>73.534640929769608</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218">
+        <f t="shared" si="3"/>
+        <v>0.9131930478880792</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1.4915634897782799</v>
       </c>
@@ -5456,8 +6357,12 @@
       <c r="G219">
         <v>67.525149258406742</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219">
+        <f t="shared" si="3"/>
+        <v>0.98551212580321557</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1.56326990026961</v>
       </c>
@@ -5479,8 +6384,12 @@
       <c r="G220">
         <v>74.703958540121747</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220">
+        <f t="shared" si="3"/>
+        <v>0.99744858261283409</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1.7340235060073801</v>
       </c>
@@ -5502,8 +6411,12 @@
       <c r="G221">
         <v>75.661635419158316</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221">
+        <f t="shared" si="3"/>
+        <v>0.98996720822856499</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1.8086877993874799</v>
       </c>
@@ -5525,8 +6438,12 @@
       <c r="G222">
         <v>71.440033894319811</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222">
+        <f t="shared" si="3"/>
+        <v>0.97523414217514193</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1.8603905452451299</v>
       </c>
@@ -5548,8 +6465,12 @@
       <c r="G223">
         <v>74.181811474638494</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223">
+        <f t="shared" si="3"/>
+        <v>0.96205952834750397</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2.0026437714315599</v>
       </c>
@@ -5571,8 +6492,12 @@
       <c r="G224">
         <v>73.264019931345473</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224">
+        <f t="shared" si="3"/>
+        <v>0.91875509295178825</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2.1451692275475698</v>
       </c>
@@ -5594,8 +6519,12 @@
       <c r="G225">
         <v>70.846985920379055</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225">
+        <f t="shared" si="3"/>
+        <v>0.89177975979818769</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2.2860429809177201</v>
       </c>
@@ -5617,8 +6546,12 @@
       <c r="G226">
         <v>66.213588828280763</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226">
+        <f t="shared" si="3"/>
+        <v>0.83433954687503331</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2.3522315001439602</v>
       </c>
@@ -5640,8 +6573,12 @@
       <c r="G227">
         <v>65.138625518930652</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227">
+        <f t="shared" si="3"/>
+        <v>0.81270700956193187</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1.4678559275449501</v>
       </c>
@@ -5663,8 +6600,12 @@
       <c r="G228">
         <v>73.427675197437765</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228">
+        <f t="shared" si="3"/>
+        <v>0.94563210427312228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1.56407088448551</v>
       </c>
@@ -5686,8 +6627,12 @@
       <c r="G229">
         <v>72.51879652043614</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229">
+        <f t="shared" si="3"/>
+        <v>0.9077827929834692</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1.71337853048189</v>
       </c>
@@ -5709,8 +6654,12 @@
       <c r="G230">
         <v>67.20802544112162</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230">
+        <f t="shared" si="3"/>
+        <v>0.82511432422589959</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1.7638065073423499</v>
       </c>
@@ -5732,8 +6681,12 @@
       <c r="G231">
         <v>67.012708509311153</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231">
+        <f t="shared" si="3"/>
+        <v>0.81782874322981669</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1.8359212627280499</v>
       </c>
@@ -5755,8 +6708,12 @@
       <c r="G232">
         <v>65.183419376967336</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232">
+        <f t="shared" si="3"/>
+        <v>0.81774109925885941</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1.9627280580059101</v>
       </c>
@@ -5778,8 +6735,12 @@
       <c r="G233">
         <v>62.170226145828508</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233">
+        <f t="shared" si="3"/>
+        <v>0.80122107800431863</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2.0591419522027001</v>
       </c>
@@ -5801,8 +6762,12 @@
       <c r="G234">
         <v>57.696922921925598</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234">
+        <f t="shared" si="3"/>
+        <v>0.76812930831718895</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2.0892521529722798</v>
       </c>
@@ -5824,8 +6789,12 @@
       <c r="G235">
         <v>58.654241892954232</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235">
+        <f t="shared" si="3"/>
+        <v>0.73979922734570758</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2.1483234300971099</v>
       </c>
@@ -5847,8 +6816,12 @@
       <c r="G236">
         <v>56.600904557135458</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236">
+        <f t="shared" si="3"/>
+        <v>0.72939889674482983</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2.2060257047875802</v>
       </c>
@@ -5870,8 +6843,12 @@
       <c r="G237">
         <v>53.75814449803098</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237">
+        <f t="shared" si="3"/>
+        <v>0.73104693357866657</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2.2853833468575702</v>
       </c>
@@ -5893,8 +6870,12 @@
       <c r="G238">
         <v>52.646539282640127</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238">
+        <f t="shared" si="3"/>
+        <v>0.73609949915001949</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1.3422479909954701</v>
       </c>
@@ -5916,8 +6897,12 @@
       <c r="G239">
         <v>55.53757578268003</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239">
+        <f t="shared" si="3"/>
+        <v>0.75764020474252591</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1.3866764390231101</v>
       </c>
@@ -5939,8 +6924,12 @@
       <c r="G240">
         <v>52.568642007982618</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240">
+        <f t="shared" si="3"/>
+        <v>0.71118095156939942</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1.4428003036410699</v>
       </c>
@@ -5962,8 +6951,12 @@
       <c r="G241">
         <v>50.280325043878513</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241">
+        <f t="shared" si="3"/>
+        <v>0.68939206640447004</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1.4989346386409399</v>
       </c>
@@ -5985,8 +6978,12 @@
       <c r="G242">
         <v>47.184749818168036</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242">
+        <f t="shared" si="3"/>
+        <v>0.66884672668788825</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1.6214459597413799</v>
       </c>
@@ -6008,8 +7005,12 @@
       <c r="G243">
         <v>44.230652849342377</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243">
+        <f t="shared" si="3"/>
+        <v>0.65344398233972634</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1.6791272936680299</v>
       </c>
@@ -6031,8 +7032,12 @@
       <c r="G244">
         <v>43.079505368560653</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244">
+        <f t="shared" si="3"/>
+        <v>0.651431261094498</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1.7209433814098301</v>
       </c>
@@ -6054,8 +7059,12 @@
       <c r="G245">
         <v>41.365117679069463</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245">
+        <f t="shared" si="3"/>
+        <v>0.64943942127578436</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1.79302672564981</v>
       </c>
@@ -6077,8 +7086,12 @@
       <c r="G246">
         <v>39.47946033839554</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246">
+        <f t="shared" si="3"/>
+        <v>0.64352342154085251</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1.87234248619218</v>
       </c>
@@ -6100,8 +7113,12 @@
       <c r="G247">
         <v>37.658282921163483</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247">
+        <f t="shared" si="3"/>
+        <v>0.64145324155199002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1.92713922990341</v>
       </c>
@@ -6123,8 +7140,12 @@
       <c r="G248">
         <v>35.535972981799453</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248">
+        <f t="shared" si="3"/>
+        <v>0.63941819015645596</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1.95597466167578</v>
       </c>
@@ -6146,8 +7167,12 @@
       <c r="G249">
         <v>34.066991559561892</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249">
+        <f t="shared" si="3"/>
+        <v>0.63742089201983831</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1.9862733293196799</v>
       </c>
@@ -6168,6 +7193,10 @@
       </c>
       <c r="G250">
         <v>31.18547167791467</v>
+      </c>
+      <c r="H250">
+        <f t="shared" si="3"/>
+        <v>0.63932217455032569</v>
       </c>
     </row>
   </sheetData>
